--- a/biology/Microbiologie/Gélose_lactosée_au_Tergitol_7_et_au_TTC/Gélose_lactosée_au_Tergitol_7_et_au_TTC.xlsx
+++ b/biology/Microbiologie/Gélose_lactosée_au_Tergitol_7_et_au_TTC/Gélose_lactosée_au_Tergitol_7_et_au_TTC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lactos%C3%A9e_au_Tergitol_7_et_au_TTC</t>
+          <t>Gélose_lactosée_au_Tergitol_7_et_au_TTC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lactos%C3%A9e_au_Tergitol_7_et_au_TTC</t>
+          <t>Gélose_lactosée_au_Tergitol_7_et_au_TTC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un milieu de recherche et de dénombrement des coliformes. Il est surtout utilisé pour la colimétrie des eaux par la méthode de filtration.
 </t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lactos%C3%A9e_au_Tergitol_7_et_au_TTC</t>
+          <t>Gélose_lactosée_au_Tergitol_7_et_au_TTC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>peptone	10,0 g
 extrait de viande	5,0 g
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lactos%C3%A9e_au_Tergitol_7_et_au_TTC</t>
+          <t>Gélose_lactosée_au_Tergitol_7_et_au_TTC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">54,15 g par litre. Stérilisation classique. Le tergitol est ajouté dans le milieu en surfusion préalablement refroidi à 45 °C.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_lactos%C3%A9e_au_Tergitol_7_et_au_TTC</t>
+          <t>Gélose_lactosée_au_Tergitol_7_et_au_TTC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">halo bleu ou vert : lactose - !
 halo jaune : lactose + !
